--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -153,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,13 +170,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -338,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,148 +676,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,22 +831,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1176,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1329,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="8">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>20</v>
